--- a/planning/gantt.xlsx
+++ b/planning/gantt.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\Cours\BAC-3 -  Projet individuel\22-23\template-github\agenda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lesage Thibaut\Desktop\Silver.simon - Projet Indiv\2324_INFOB318_Silver.Simon1\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9AC415-A9BE-4A71-B2F0-568D6F857C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15000" windowHeight="7830"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effort" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>…</t>
   </si>
@@ -47,11 +48,41 @@
   <si>
     <t>Total:</t>
   </si>
+  <si>
+    <t xml:space="preserve">Lesage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thibaut </t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>Silver.Simon</t>
+  </si>
+  <si>
+    <t>Tampon récupération retard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rencontre client </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse </t>
+  </si>
+  <si>
+    <t>Recherche sur le sujet - Alzheimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formation développement mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conception </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,7 +561,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="22" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -541,10 +572,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="8" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="5" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Accent1" xfId="1" builtinId="30"/>
@@ -568,9 +599,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -608,9 +639,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,7 +676,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,7 +711,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -853,77 +884,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AH46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
-    <col min="4" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="11" max="16" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:34" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="2:34" ht="21" x14ac:dyDescent="0.5">
+      <c r="C2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="2:34" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="2:34" ht="21" x14ac:dyDescent="0.5">
+      <c r="C3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="2:34" ht="21" x14ac:dyDescent="0.4">
       <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="2:34" ht="21" x14ac:dyDescent="0.5">
+      <c r="C4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="2:34" ht="21" x14ac:dyDescent="0.4">
       <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="19">
         <f>SUM(D11:D36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="20">
         <f t="shared" ref="E7:Z7" si="0">SUM(E11:E36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="20">
         <f t="shared" si="0"/>
@@ -1042,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>3</v>
       </c>
@@ -1050,144 +1089,144 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>44823</v>
+        <v>45215</v>
       </c>
       <c r="E8" s="2">
         <f>D8+7</f>
-        <v>44830</v>
+        <v>45222</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ref="F8:Q8" si="2">E8+7</f>
-        <v>44837</v>
+        <v>45229</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="2"/>
-        <v>44844</v>
+        <v>45236</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>44851</v>
+        <v>45243</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>44858</v>
+        <v>45250</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>44865</v>
+        <v>45257</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="2"/>
-        <v>44872</v>
+        <v>45264</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>44879</v>
+        <v>45271</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>44886</v>
+        <v>45278</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="2"/>
-        <v>44893</v>
+        <v>45285</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="2"/>
-        <v>44900</v>
+        <v>45292</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="2"/>
-        <v>44907</v>
+        <v>45299</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="2"/>
-        <v>44914</v>
+        <v>45306</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" ref="R8" si="3">Q8+7</f>
-        <v>44921</v>
+        <v>45313</v>
       </c>
       <c r="S8" s="3">
         <f t="shared" ref="S8" si="4">R8+7</f>
-        <v>44928</v>
+        <v>45320</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" ref="T8" si="5">S8+7</f>
-        <v>44935</v>
+        <v>45327</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" ref="U8" si="6">T8+7</f>
-        <v>44942</v>
+        <v>45334</v>
       </c>
       <c r="V8" s="3">
         <f t="shared" ref="V8" si="7">U8+7</f>
-        <v>44949</v>
+        <v>45341</v>
       </c>
       <c r="W8" s="3">
         <f t="shared" ref="W8" si="8">V8+7</f>
-        <v>44956</v>
+        <v>45348</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" ref="X8" si="9">W8+7</f>
-        <v>44963</v>
+        <v>45355</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" ref="Y8" si="10">X8+7</f>
-        <v>44970</v>
+        <v>45362</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" ref="Z8:AH8" si="11">Y8+7</f>
-        <v>44977</v>
+        <v>45369</v>
       </c>
       <c r="AA8" s="3">
         <f t="shared" si="11"/>
-        <v>44984</v>
+        <v>45376</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" si="11"/>
-        <v>44991</v>
+        <v>45383</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" si="11"/>
-        <v>44998</v>
+        <v>45390</v>
       </c>
       <c r="AD8" s="3">
         <f t="shared" si="11"/>
-        <v>45005</v>
+        <v>45397</v>
       </c>
       <c r="AE8" s="3">
         <f t="shared" si="11"/>
-        <v>45012</v>
+        <v>45404</v>
       </c>
       <c r="AF8" s="3">
         <f t="shared" si="11"/>
-        <v>45019</v>
+        <v>45411</v>
       </c>
       <c r="AG8" s="3">
         <f t="shared" si="11"/>
-        <v>45026</v>
+        <v>45418</v>
       </c>
       <c r="AH8" s="3">
         <f t="shared" si="11"/>
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="9" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(C10:C46)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="26">
         <f>SUM(D10:D46)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="26">
         <f t="shared" ref="E9:Z9" si="12">SUM(E10:E46)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="26">
         <f t="shared" si="12"/>
@@ -1306,8 +1345,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="27"/>
+    <row r="10" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="28" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="25">
         <f>SUM(D10:AH10)</f>
         <v>0</v>
@@ -1344,13 +1385,17 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
     </row>
-    <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="7"/>
+    <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="25">
         <f t="shared" ref="C11:C46" si="14">SUM(D11:AH11)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1382,14 +1427,18 @@
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
     </row>
-    <row r="12" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="7"/>
+    <row r="12" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -1420,14 +1469,18 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
     </row>
-    <row r="13" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="7"/>
+    <row r="13" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12">
+        <v>2</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -1458,8 +1511,10 @@
       <c r="AG13" s="13"/>
       <c r="AH13" s="13"/>
     </row>
-    <row r="14" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="7"/>
+    <row r="14" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="25">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -1496,8 +1551,10 @@
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
     </row>
-    <row r="15" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="7"/>
+    <row r="15" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" s="25">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -1534,7 +1591,7 @@
       <c r="AG15" s="13"/>
       <c r="AH15" s="13"/>
     </row>
-    <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7"/>
       <c r="C16" s="25">
         <f t="shared" si="14"/>
@@ -1572,7 +1629,7 @@
       <c r="AG16" s="13"/>
       <c r="AH16" s="13"/>
     </row>
-    <row r="17" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7"/>
       <c r="C17" s="25">
         <f t="shared" si="14"/>
@@ -1610,7 +1667,7 @@
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
     </row>
-    <row r="18" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="7"/>
       <c r="C18" s="25">
         <f t="shared" si="14"/>
@@ -1648,7 +1705,7 @@
       <c r="AG18" s="13"/>
       <c r="AH18" s="13"/>
     </row>
-    <row r="19" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7"/>
       <c r="C19" s="25">
         <f t="shared" si="14"/>
@@ -1686,7 +1743,7 @@
       <c r="AG19" s="13"/>
       <c r="AH19" s="13"/>
     </row>
-    <row r="20" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="7"/>
       <c r="C20" s="25">
         <f t="shared" si="14"/>
@@ -1724,7 +1781,7 @@
       <c r="AG20" s="13"/>
       <c r="AH20" s="13"/>
     </row>
-    <row r="21" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
       <c r="C21" s="25">
         <f t="shared" si="14"/>
@@ -1762,7 +1819,7 @@
       <c r="AG21" s="13"/>
       <c r="AH21" s="13"/>
     </row>
-    <row r="22" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
       <c r="C22" s="25">
         <f t="shared" si="14"/>
@@ -1800,7 +1857,7 @@
       <c r="AG22" s="13"/>
       <c r="AH22" s="13"/>
     </row>
-    <row r="23" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
       <c r="C23" s="25">
         <f t="shared" si="14"/>
@@ -1838,7 +1895,7 @@
       <c r="AG23" s="13"/>
       <c r="AH23" s="13"/>
     </row>
-    <row r="24" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="7"/>
       <c r="C24" s="25">
         <f t="shared" si="14"/>
@@ -1876,7 +1933,7 @@
       <c r="AG24" s="13"/>
       <c r="AH24" s="13"/>
     </row>
-    <row r="25" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7"/>
       <c r="C25" s="25">
         <f t="shared" si="14"/>
@@ -1914,7 +1971,7 @@
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
     </row>
-    <row r="26" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
       <c r="C26" s="25">
         <f t="shared" si="14"/>
@@ -1952,7 +2009,7 @@
       <c r="AG26" s="13"/>
       <c r="AH26" s="13"/>
     </row>
-    <row r="27" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
       <c r="C27" s="25">
         <f t="shared" si="14"/>
@@ -1990,7 +2047,7 @@
       <c r="AG27" s="13"/>
       <c r="AH27" s="13"/>
     </row>
-    <row r="28" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
       <c r="C28" s="25">
         <f t="shared" si="14"/>
@@ -2028,7 +2085,7 @@
       <c r="AG28" s="13"/>
       <c r="AH28" s="13"/>
     </row>
-    <row r="29" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
       <c r="C29" s="25">
         <f t="shared" si="14"/>
@@ -2066,7 +2123,7 @@
       <c r="AG29" s="13"/>
       <c r="AH29" s="13"/>
     </row>
-    <row r="30" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="C30" s="25">
         <f t="shared" si="14"/>
@@ -2104,7 +2161,7 @@
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
     </row>
-    <row r="31" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="C31" s="25">
         <f t="shared" si="14"/>
@@ -2142,7 +2199,7 @@
       <c r="AG31" s="13"/>
       <c r="AH31" s="13"/>
     </row>
-    <row r="32" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
       <c r="C32" s="25">
         <f t="shared" si="14"/>
@@ -2180,7 +2237,7 @@
       <c r="AG32" s="13"/>
       <c r="AH32" s="13"/>
     </row>
-    <row r="33" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
       <c r="C33" s="25">
         <f t="shared" si="14"/>
@@ -2218,7 +2275,7 @@
       <c r="AG33" s="13"/>
       <c r="AH33" s="13"/>
     </row>
-    <row r="34" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="7"/>
       <c r="C34" s="25">
         <f t="shared" si="14"/>
@@ -2256,7 +2313,7 @@
       <c r="AG34" s="13"/>
       <c r="AH34" s="13"/>
     </row>
-    <row r="35" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
       <c r="C35" s="25">
         <f t="shared" si="14"/>
@@ -2294,7 +2351,7 @@
       <c r="AG35" s="13"/>
       <c r="AH35" s="13"/>
     </row>
-    <row r="36" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="7" t="s">
         <v>0</v>
       </c>
@@ -2334,7 +2391,7 @@
       <c r="AG36" s="13"/>
       <c r="AH36" s="13"/>
     </row>
-    <row r="37" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
         <v>0</v>
       </c>
@@ -2374,7 +2431,7 @@
       <c r="AG37" s="13"/>
       <c r="AH37" s="13"/>
     </row>
-    <row r="38" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="7" t="s">
         <v>0</v>
       </c>
@@ -2414,7 +2471,7 @@
       <c r="AG38" s="13"/>
       <c r="AH38" s="13"/>
     </row>
-    <row r="39" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
         <v>0</v>
       </c>
@@ -2454,7 +2511,7 @@
       <c r="AG39" s="13"/>
       <c r="AH39" s="13"/>
     </row>
-    <row r="40" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="7"/>
       <c r="C40" s="25">
         <f t="shared" si="14"/>
@@ -2492,7 +2549,7 @@
       <c r="AG40" s="13"/>
       <c r="AH40" s="13"/>
     </row>
-    <row r="41" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="7"/>
       <c r="C41" s="25">
         <f t="shared" si="14"/>
@@ -2530,7 +2587,7 @@
       <c r="AG41" s="13"/>
       <c r="AH41" s="13"/>
     </row>
-    <row r="42" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="7"/>
       <c r="C42" s="25">
         <f t="shared" si="14"/>
@@ -2568,7 +2625,7 @@
       <c r="AG42" s="13"/>
       <c r="AH42" s="13"/>
     </row>
-    <row r="43" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7"/>
       <c r="C43" s="25">
         <f t="shared" si="14"/>
@@ -2606,7 +2663,7 @@
       <c r="AG43" s="13"/>
       <c r="AH43" s="13"/>
     </row>
-    <row r="44" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="7"/>
       <c r="C44" s="25">
         <f t="shared" si="14"/>
@@ -2644,7 +2701,7 @@
       <c r="AG44" s="13"/>
       <c r="AH44" s="13"/>
     </row>
-    <row r="45" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="7"/>
       <c r="C45" s="25">
         <f t="shared" si="14"/>
@@ -2682,7 +2739,7 @@
       <c r="AG45" s="13"/>
       <c r="AH45" s="13"/>
     </row>
-    <row r="46" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
       <c r="C46" s="25">
         <f t="shared" si="14"/>
@@ -2727,36 +2784,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D11:P18 D21:P29 D19:H20 J19:P20">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:Q10 Q11:Q29">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10:Z29">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C10">
     <cfRule type="dataBar" priority="73">
       <dataBar>
@@ -2771,634 +2798,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:P30">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R30:Z30">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:P35">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q31:Q35">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31:Z35">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:P40">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q36:Q40">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R36:Z40">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:P41">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q41">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R41:Z41">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:P46">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q42:Q46">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R42:Z46">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA10:AA29">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA30">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA31:AA35">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA36:AA40">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA41">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA42:AA46">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB10:AB29">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB30">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB31:AB35">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB36:AB40">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB41">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB42:AB46">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC10:AC29">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC30">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC31:AC35">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC36:AC40">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC41">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC42:AC46">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD10:AD29">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD30">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD31:AD35">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD36:AD40">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD41">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD42:AD46">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE10:AE29">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31:AE35">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE36:AE40">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE41">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE42:AE46">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF10:AF29">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF31:AF35">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF36:AF40">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF41">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF42:AF46">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG10:AG29">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG30">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG31:AG35">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG36:AG40">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG41">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG42:AG46">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH10:AH29">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH30">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31:AH35">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH36:AH40">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH41">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH42:AH46">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="C10:C46">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A2C7A50C-F572-416B-9495-8A28D149BC35}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C46">
@@ -3415,26 +2826,72 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C46">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A2C7A50C-F572-416B-9495-8A28D149BC35}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:AH46">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
+  <conditionalFormatting sqref="D11:P18 D21:P29 D19:H20 J19:P20">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:P30">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:P35">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:P40">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:P41">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:P46">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:Q10 Q11:Q29">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -3451,6 +2908,606 @@
           <x14:id>{BCD65580-FCE2-4CC5-9CCE-B782BE912BFA}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:AH46">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q30">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31:Q35">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36:Q40">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q42:Q46">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10:Z29">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R30:Z30">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31:Z35">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R36:Z40">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R41:Z41">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R42:Z46">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA10:AA29">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA30">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA31:AA35">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA36:AA40">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA41">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA42:AA46">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10:AB29">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB30">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB31:AB35">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB36:AB40">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB41">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB42:AB46">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10:AC29">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC30">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC31:AC35">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC36:AC40">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC41">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC42:AC46">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD10:AD29">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD30">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD31:AD35">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD36:AD40">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD41">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD42:AD46">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE10:AE29">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31:AE35">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE36:AE40">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE41">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE42:AE46">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10:AF29">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF30">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31:AF35">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF36:AF40">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF41">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF42:AF46">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10:AG29">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG30">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG31:AG35">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36:AG40">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG41">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG42:AG46">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH10:AH29">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH30">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31:AH35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36:AH40">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH41">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH42:AH46">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3472,6 +3529,17 @@
           <xm:sqref>C10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A2C7A50C-F572-416B-9495-8A28D149BC35}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C10:C46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{91046929-9F97-4C47-9B86-AC798F7EDAC7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -3483,17 +3551,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C11:C46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A2C7A50C-F572-416B-9495-8A28D149BC35}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C10:C46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BCD65580-FCE2-4CC5-9CCE-B782BE912BFA}">

--- a/planning/gantt.xlsx
+++ b/planning/gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lesage Thibaut\Desktop\Silver.simon - Projet Indiv\2324_INFOB318_Silver.Simon1\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lesage Thibaut\Desktop\2324_INFOB318_Silver.Simon1\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9AC415-A9BE-4A71-B2F0-568D6F857C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5629FC82-924E-4F85-B684-3ECAB3FF6158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,10 +572,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="8" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="5" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Accent1" xfId="1" builtinId="30"/>
@@ -888,7 +888,7 @@
   <dimension ref="B2:AH46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,49 +907,49 @@
       <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:34" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:34" ht="21" x14ac:dyDescent="0.4">
       <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:34" ht="21" x14ac:dyDescent="0.4">
       <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -966,7 +966,7 @@
       </c>
       <c r="F7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C9" s="22">
         <f>SUM(C10:C46)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="26">
         <f>SUM(D10:D46)</f>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="F9" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="26">
         <f t="shared" si="12"/>
@@ -1346,7 +1346,7 @@
       </c>
     </row>
     <row r="10" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="25">
@@ -1433,13 +1433,15 @@
       </c>
       <c r="C12" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="12">
         <v>2</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1475,13 +1477,15 @@
       </c>
       <c r="C13" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="12">
         <v>2</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1517,11 +1521,13 @@
       </c>
       <c r="C14" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12">
+        <v>3</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>

--- a/planning/gantt.xlsx
+++ b/planning/gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lesage Thibaut\Desktop\2324_INFOB318_Silver.Simon1\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5629FC82-924E-4F85-B684-3ECAB3FF6158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371CA1B6-FD2D-4D97-9D69-B29B2E68DC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AH46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,11 +970,11 @@
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C9" s="22">
         <f>SUM(C10:C46)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D9" s="26">
         <f>SUM(D10:D46)</f>
@@ -1234,11 +1234,11 @@
       </c>
       <c r="G9" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="26">
         <f t="shared" si="12"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C11" s="25">
         <f t="shared" ref="C11:C46" si="14">SUM(D11:AH11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -1399,7 +1399,9 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -1521,14 +1523,16 @@
       </c>
       <c r="C14" s="25">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12">
         <v>3</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="12">
+        <v>5</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -1563,12 +1567,14 @@
       </c>
       <c r="C15" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12">
+        <v>2</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>

--- a/planning/gantt.xlsx
+++ b/planning/gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lesage Thibaut\Desktop\2324_INFOB318_Silver.Simon1\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371CA1B6-FD2D-4D97-9D69-B29B2E68DC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D596E38A-662F-4919-83BF-D3F0CF0C6061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>…</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Conception </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ère Application To-Do List </t>
   </si>
 </sst>
 </file>
@@ -888,7 +891,7 @@
   <dimension ref="B2:AH46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,7 +981,7 @@
       </c>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="0"/>
@@ -1218,7 +1221,7 @@
       </c>
       <c r="C9" s="22">
         <f>SUM(C10:C46)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9" s="26">
         <f>SUM(D10:D46)</f>
@@ -1242,7 +1245,7 @@
       </c>
       <c r="I9" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" s="26">
         <f t="shared" si="12"/>
@@ -1391,7 +1394,7 @@
       </c>
       <c r="C11" s="25">
         <f t="shared" ref="C11:C46" si="14">SUM(D11:AH11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -1402,7 +1405,9 @@
       <c r="H11" s="12">
         <v>1</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -1479,7 +1484,7 @@
       </c>
       <c r="C13" s="25">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="12">
@@ -1490,7 +1495,9 @@
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="12">
+        <v>2</v>
+      </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -1604,17 +1611,21 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="12">
+        <v>2</v>
+      </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>

--- a/planning/gantt.xlsx
+++ b/planning/gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lesage Thibaut\Desktop\2324_INFOB318_Silver.Simon1\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D596E38A-662F-4919-83BF-D3F0CF0C6061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2D7144-435C-4C29-960B-169FC43610F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>…</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t xml:space="preserve">1ère Application To-Do List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ème Application Bac à sable </t>
+  </si>
+  <si>
+    <t>Design Figma</t>
   </si>
 </sst>
 </file>
@@ -888,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AH46"/>
+  <dimension ref="B2:AH47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,12 +966,12 @@
         <v>1</v>
       </c>
       <c r="D7" s="19">
-        <f>SUM(D11:D36)</f>
-        <v>1</v>
+        <f>SUM(D11:D37)</f>
+        <v>3</v>
       </c>
       <c r="E7" s="20">
-        <f t="shared" ref="E7:Z7" si="0">SUM(E11:E36)</f>
-        <v>4</v>
+        <f t="shared" ref="E7:Z7" si="0">SUM(E11:E37)</f>
+        <v>6</v>
       </c>
       <c r="F7" s="20">
         <f t="shared" si="0"/>
@@ -973,27 +979,27 @@
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" si="0"/>
@@ -1052,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="6">
-        <f t="shared" ref="AA7:AH7" si="1">SUM(AA11:AA36)</f>
+        <f t="shared" ref="AA7:AH7" si="1">SUM(AA11:AA37)</f>
         <v>0</v>
       </c>
       <c r="AB7" s="6">
@@ -1220,16 +1226,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="22">
-        <f>SUM(C10:C46)</f>
-        <v>23</v>
+        <f>SUM(C10:C47)</f>
+        <v>61</v>
       </c>
       <c r="D9" s="26">
-        <f>SUM(D10:D46)</f>
-        <v>1</v>
+        <f>SUM(D10:D47)</f>
+        <v>3</v>
       </c>
       <c r="E9" s="26">
-        <f t="shared" ref="E9:Z9" si="12">SUM(E10:E46)</f>
-        <v>4</v>
+        <f t="shared" ref="E9:Z9" si="12">SUM(E10:E47)</f>
+        <v>6</v>
       </c>
       <c r="F9" s="26">
         <f t="shared" si="12"/>
@@ -1237,27 +1243,27 @@
       </c>
       <c r="G9" s="26">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I9" s="26">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K9" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L9" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M9" s="26">
         <f t="shared" si="12"/>
@@ -1316,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="26">
-        <f t="shared" ref="AA9:AH9" si="13">SUM(AA10:AA46)</f>
+        <f t="shared" ref="AA9:AH9" si="13">SUM(AA10:AA47)</f>
         <v>0</v>
       </c>
       <c r="AB9" s="26">
@@ -1393,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="25">
-        <f t="shared" ref="C11:C46" si="14">SUM(D11:AH11)</f>
+        <f t="shared" ref="C11:C47" si="14">SUM(D11:AH11)</f>
         <v>3</v>
       </c>
       <c r="D11" s="17">
@@ -1402,13 +1408,11 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12">
+        <v>2</v>
+      </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -1436,24 +1440,28 @@
     </row>
     <row r="12" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C12" s="25">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="D12" s="17"/>
+        <f>SUM(D12:AH12)</f>
+        <v>8</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2</v>
+      </c>
       <c r="E12" s="12">
         <v>2</v>
       </c>
-      <c r="F12" s="12">
-        <v>1</v>
-      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="J12" s="12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="12">
+        <v>2</v>
+      </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -1480,11 +1488,11 @@
     </row>
     <row r="13" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="25">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="12">
@@ -1494,13 +1502,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12">
+      <c r="H13" s="12">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12">
+        <v>4</v>
+      </c>
+      <c r="K13" s="12">
         <v>2</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="L13" s="12">
+        <v>2</v>
+      </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -1526,22 +1540,26 @@
     </row>
     <row r="14" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="25">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="12">
+        <v>2</v>
+      </c>
       <c r="F14" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="I14" s="12">
+        <v>2</v>
+      </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -1570,23 +1588,31 @@
     </row>
     <row r="15" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="12">
+        <v>3</v>
+      </c>
       <c r="G15" s="12">
+        <v>5</v>
+      </c>
+      <c r="H15" s="12">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12">
         <v>2</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="L15" s="12">
+        <v>2</v>
+      </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -1612,20 +1638,20 @@
     </row>
     <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="12">
+        <v>4</v>
+      </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="12">
-        <v>2</v>
-      </c>
+      <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
@@ -1653,17 +1679,21 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="12">
+        <v>4</v>
+      </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -1691,10 +1721,12 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="C18" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="12"/>
@@ -1703,8 +1735,12 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="K18" s="12">
+        <v>1</v>
+      </c>
+      <c r="L18" s="12">
+        <v>4</v>
+      </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
@@ -2337,7 +2373,7 @@
       <c r="AH34" s="13"/>
     </row>
     <row r="35" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="8"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="25">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -2375,9 +2411,7 @@
       <c r="AH35" s="13"/>
     </row>
     <row r="36" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B36" s="8"/>
       <c r="C36" s="25">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -2535,7 +2569,9 @@
       <c r="AH39" s="13"/>
     </row>
     <row r="40" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="C40" s="25">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -2763,42 +2799,80 @@
       <c r="AH45" s="13"/>
     </row>
     <row r="46" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="8"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15"/>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="15"/>
-      <c r="AH46" s="15"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+    </row>
+    <row r="47" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="8"/>
+      <c r="C47" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+      <c r="AH47" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2821,7 +2895,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C46">
+  <conditionalFormatting sqref="C10:C47">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -2835,7 +2909,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C46">
+  <conditionalFormatting sqref="C11:C47">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -2849,7 +2923,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:P18 D21:P29 D19:H20 J19:P20">
+  <conditionalFormatting sqref="D11:P19 D22:P30 D20:H21 J20:P21">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -2859,7 +2933,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:P30">
+  <conditionalFormatting sqref="D31:P31">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -2869,7 +2943,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:P35">
+  <conditionalFormatting sqref="D32:P36">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -2879,7 +2953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:P40">
+  <conditionalFormatting sqref="D37:P41">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -2889,7 +2963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:P41">
+  <conditionalFormatting sqref="D42:P42">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -2899,7 +2973,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:P46">
+  <conditionalFormatting sqref="D43:P47">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -2909,7 +2983,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:Q10 Q11:Q29">
+  <conditionalFormatting sqref="D10:Q10 Q11:Q30">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -2933,7 +3007,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:AH46">
+  <conditionalFormatting sqref="D10:AH47">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2943,7 +3017,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
+  <conditionalFormatting sqref="Q31">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -2953,7 +3027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q31:Q35">
+  <conditionalFormatting sqref="Q32:Q36">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -2963,7 +3037,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q36:Q40">
+  <conditionalFormatting sqref="Q37:Q41">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -2973,7 +3047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q41">
+  <conditionalFormatting sqref="Q42">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -2983,7 +3057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q42:Q46">
+  <conditionalFormatting sqref="Q43:Q47">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -2993,7 +3067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10:Z29">
+  <conditionalFormatting sqref="R10:Z30">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -3003,7 +3077,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30:Z30">
+  <conditionalFormatting sqref="R31:Z31">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -3013,7 +3087,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R31:Z35">
+  <conditionalFormatting sqref="R32:Z36">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -3023,7 +3097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R36:Z40">
+  <conditionalFormatting sqref="R37:Z41">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -3033,7 +3107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R41:Z41">
+  <conditionalFormatting sqref="R42:Z42">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -3043,7 +3117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R42:Z46">
+  <conditionalFormatting sqref="R43:Z47">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -3053,7 +3127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA10:AA29">
+  <conditionalFormatting sqref="AA10:AA30">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -3063,7 +3137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA30">
+  <conditionalFormatting sqref="AA31">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -3073,7 +3147,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA31:AA35">
+  <conditionalFormatting sqref="AA32:AA36">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -3083,7 +3157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA36:AA40">
+  <conditionalFormatting sqref="AA37:AA41">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -3093,7 +3167,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA41">
+  <conditionalFormatting sqref="AA42">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -3103,7 +3177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA42:AA46">
+  <conditionalFormatting sqref="AA43:AA47">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -3113,7 +3187,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB10:AB29">
+  <conditionalFormatting sqref="AB10:AB30">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -3123,7 +3197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB30">
+  <conditionalFormatting sqref="AB31">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -3133,7 +3207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB31:AB35">
+  <conditionalFormatting sqref="AB32:AB36">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -3143,7 +3217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB36:AB40">
+  <conditionalFormatting sqref="AB37:AB41">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3153,7 +3227,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB41">
+  <conditionalFormatting sqref="AB42">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3163,7 +3237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB42:AB46">
+  <conditionalFormatting sqref="AB43:AB47">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3173,7 +3247,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC10:AC29">
+  <conditionalFormatting sqref="AC10:AC30">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3183,7 +3257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC30">
+  <conditionalFormatting sqref="AC31">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3193,7 +3267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC31:AC35">
+  <conditionalFormatting sqref="AC32:AC36">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3203,7 +3277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC36:AC40">
+  <conditionalFormatting sqref="AC37:AC41">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3213,7 +3287,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC41">
+  <conditionalFormatting sqref="AC42">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3223,7 +3297,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC42:AC46">
+  <conditionalFormatting sqref="AC43:AC47">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -3233,7 +3307,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD10:AD29">
+  <conditionalFormatting sqref="AD10:AD30">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -3243,7 +3317,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD30">
+  <conditionalFormatting sqref="AD31">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3253,7 +3327,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD31:AD35">
+  <conditionalFormatting sqref="AD32:AD36">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3263,7 +3337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD36:AD40">
+  <conditionalFormatting sqref="AD37:AD41">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3273,7 +3347,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD41">
+  <conditionalFormatting sqref="AD42">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3283,7 +3357,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD42:AD46">
+  <conditionalFormatting sqref="AD43:AD47">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3293,7 +3367,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE10:AE29">
+  <conditionalFormatting sqref="AE10:AE30">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3303,7 +3377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
+  <conditionalFormatting sqref="AE31">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3313,7 +3387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31:AE35">
+  <conditionalFormatting sqref="AE32:AE36">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -3323,7 +3397,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE36:AE40">
+  <conditionalFormatting sqref="AE37:AE41">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -3333,7 +3407,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE41">
+  <conditionalFormatting sqref="AE42">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3343,7 +3417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE42:AE46">
+  <conditionalFormatting sqref="AE43:AE47">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3353,7 +3427,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF10:AF29">
+  <conditionalFormatting sqref="AF10:AF30">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3363,7 +3437,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
+  <conditionalFormatting sqref="AF31">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3373,7 +3447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF31:AF35">
+  <conditionalFormatting sqref="AF32:AF36">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3383,7 +3457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF36:AF40">
+  <conditionalFormatting sqref="AF37:AF41">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3393,7 +3467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF41">
+  <conditionalFormatting sqref="AF42">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3403,7 +3477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF42:AF46">
+  <conditionalFormatting sqref="AF43:AF47">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3413,7 +3487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG10:AG29">
+  <conditionalFormatting sqref="AG10:AG30">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3423,7 +3497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG30">
+  <conditionalFormatting sqref="AG31">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3433,7 +3507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG31:AG35">
+  <conditionalFormatting sqref="AG32:AG36">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3443,7 +3517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG36:AG40">
+  <conditionalFormatting sqref="AG37:AG41">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3453,7 +3527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG41">
+  <conditionalFormatting sqref="AG42">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3463,7 +3537,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG42:AG46">
+  <conditionalFormatting sqref="AG43:AG47">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3473,7 +3547,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH10:AH29">
+  <conditionalFormatting sqref="AH10:AH30">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3483,7 +3557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH30">
+  <conditionalFormatting sqref="AH31">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3493,7 +3567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH31:AH35">
+  <conditionalFormatting sqref="AH32:AH36">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3503,7 +3577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH36:AH40">
+  <conditionalFormatting sqref="AH37:AH41">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3513,7 +3587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH41">
+  <conditionalFormatting sqref="AH42">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3523,7 +3597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH42:AH46">
+  <conditionalFormatting sqref="AH43:AH47">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3560,7 +3634,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C10:C46</xm:sqref>
+          <xm:sqref>C10:C47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{91046929-9F97-4C47-9B86-AC798F7EDAC7}">
@@ -3573,7 +3647,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C11:C46</xm:sqref>
+          <xm:sqref>C11:C47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BCD65580-FCE2-4CC5-9CCE-B782BE912BFA}">

--- a/planning/gantt.xlsx
+++ b/planning/gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lesage Thibaut\Desktop\2324_INFOB318_Silver.Simon1\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiba\Desktop\2324_INFOB318_Silver.Simon1\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2D7144-435C-4C29-960B-169FC43610F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EEBD70-900C-497C-8AE2-2477C690CFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effort" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>…</t>
   </si>
@@ -76,16 +76,40 @@
     <t xml:space="preserve">Formation développement mobile </t>
   </si>
   <si>
-    <t xml:space="preserve">Conception </t>
+    <t>Design Figma</t>
   </si>
   <si>
-    <t xml:space="preserve">1ère Application To-Do List </t>
+    <t xml:space="preserve">1ère Application  BAS To-Do List </t>
   </si>
   <si>
-    <t xml:space="preserve">2ème Application Bac à sable </t>
+    <t>3ème Application BAS pour photo</t>
   </si>
   <si>
-    <t>Design Figma</t>
+    <t>2ème Application BAS pour les pages</t>
+  </si>
+  <si>
+    <t>4ème Application BAS pour BD</t>
+  </si>
+  <si>
+    <t>5ème Application BAS pour Jeux</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conception Interface Utilisateur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conception Fonctionalités Centrales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégration de médias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégration Authentification / Sécurité </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfectionnement du " jeu " </t>
   </si>
 </sst>
 </file>
@@ -894,25 +918,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AH47"/>
+  <dimension ref="B2:AH46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:34" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
@@ -924,7 +948,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
     </row>
-    <row r="3" spans="2:34" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:34" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
@@ -936,7 +960,7 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="2:34" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:34" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
@@ -948,7 +972,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="2:34" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:34" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
@@ -960,137 +984,137 @@
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
     </row>
-    <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="19">
-        <f>SUM(D11:D37)</f>
+        <f>SUM(D11:D36)</f>
         <v>3</v>
       </c>
       <c r="E7" s="20">
-        <f t="shared" ref="E7:Z7" si="0">SUM(E11:E37)</f>
+        <f>SUM(E11:E36)</f>
         <v>6</v>
       </c>
       <c r="F7" s="20">
-        <f t="shared" si="0"/>
+        <f>SUM(F11:F36)</f>
         <v>5</v>
       </c>
       <c r="G7" s="20">
-        <f t="shared" si="0"/>
+        <f>SUM(G11:G36)</f>
+        <v>6</v>
+      </c>
+      <c r="H7" s="5">
+        <f>SUM(H11:H36)</f>
+        <v>8</v>
+      </c>
+      <c r="I7" s="5">
+        <f>SUM(I11:I36)</f>
+        <v>6</v>
+      </c>
+      <c r="J7" s="5">
+        <f>SUM(J11:J36)</f>
         <v>10</v>
       </c>
-      <c r="H7" s="5">
-        <f t="shared" si="0"/>
+      <c r="K7" s="5">
+        <f>SUM(K11:K36)</f>
+        <v>5</v>
+      </c>
+      <c r="L7" s="5">
+        <f>SUM(L11:L36)</f>
         <v>8</v>
       </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
+      <c r="M7" s="5">
+        <f>SUM(M11:M36)</f>
+        <v>8</v>
+      </c>
+      <c r="N7" s="5">
+        <f>SUM(N11:N36)</f>
+        <v>8</v>
+      </c>
+      <c r="O7" s="5">
+        <f>SUM(O11:O36)</f>
+        <v>8</v>
+      </c>
+      <c r="P7" s="5">
+        <f>SUM(P11:P36)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>SUM(Q11:Q36)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <f>SUM(R11:R36)</f>
+        <v>10</v>
+      </c>
+      <c r="S7" s="6">
+        <f>SUM(S11:S36)</f>
+        <v>27</v>
+      </c>
+      <c r="T7" s="6">
+        <f>SUM(T11:T36)</f>
+        <v>23</v>
+      </c>
+      <c r="U7" s="6">
+        <f>SUM(U11:U36)</f>
+        <v>16</v>
+      </c>
+      <c r="V7" s="6">
+        <f>SUM(V11:V36)</f>
+        <v>17</v>
+      </c>
+      <c r="W7" s="6">
+        <f>SUM(W11:W36)</f>
+        <v>12</v>
+      </c>
+      <c r="X7" s="6">
+        <f>SUM(X11:X36)</f>
         <v>6</v>
       </c>
-      <c r="J7" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Y7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(Y11:Y36)</f>
+        <v>9</v>
       </c>
       <c r="Z7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(Z11:Z36)</f>
+        <v>7</v>
       </c>
       <c r="AA7" s="6">
-        <f t="shared" ref="AA7:AH7" si="1">SUM(AA11:AA37)</f>
-        <v>0</v>
+        <f>SUM(AA11:AA36)</f>
+        <v>7</v>
       </c>
       <c r="AB7" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(AB11:AB36)</f>
         <v>0</v>
       </c>
       <c r="AC7" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(AC11:AC36)</f>
         <v>0</v>
       </c>
       <c r="AD7" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(AD11:AD36)</f>
         <v>0</v>
       </c>
       <c r="AE7" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(AE11:AE36)</f>
         <v>0</v>
       </c>
       <c r="AF7" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(AF11:AF36)</f>
         <v>0</v>
       </c>
       <c r="AG7" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(AG11:AG36)</f>
         <v>0</v>
       </c>
       <c r="AH7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(AH11:AH36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
         <v>3</v>
       </c>
@@ -1105,256 +1129,256 @@
         <v>45222</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F8:Q8" si="2">E8+7</f>
+        <f t="shared" ref="F8:Q8" si="0">E8+7</f>
         <v>45229</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45236</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45243</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45250</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45257</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45264</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45271</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45278</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45285</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45292</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45299</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45306</v>
       </c>
       <c r="R8" s="3">
-        <f t="shared" ref="R8" si="3">Q8+7</f>
+        <f t="shared" ref="R8" si="1">Q8+7</f>
         <v>45313</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" ref="S8" si="4">R8+7</f>
+        <f t="shared" ref="S8" si="2">R8+7</f>
         <v>45320</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" ref="T8" si="5">S8+7</f>
+        <f t="shared" ref="T8" si="3">S8+7</f>
         <v>45327</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" ref="U8" si="6">T8+7</f>
+        <f t="shared" ref="U8" si="4">T8+7</f>
         <v>45334</v>
       </c>
       <c r="V8" s="3">
-        <f t="shared" ref="V8" si="7">U8+7</f>
+        <f t="shared" ref="V8" si="5">U8+7</f>
         <v>45341</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" ref="W8" si="8">V8+7</f>
+        <f t="shared" ref="W8" si="6">V8+7</f>
         <v>45348</v>
       </c>
       <c r="X8" s="3">
-        <f t="shared" ref="X8" si="9">W8+7</f>
+        <f t="shared" ref="X8" si="7">W8+7</f>
         <v>45355</v>
       </c>
       <c r="Y8" s="3">
-        <f t="shared" ref="Y8" si="10">X8+7</f>
+        <f t="shared" ref="Y8" si="8">X8+7</f>
         <v>45362</v>
       </c>
       <c r="Z8" s="3">
-        <f t="shared" ref="Z8:AH8" si="11">Y8+7</f>
+        <f t="shared" ref="Z8:AH8" si="9">Y8+7</f>
         <v>45369</v>
       </c>
       <c r="AA8" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>45376</v>
       </c>
       <c r="AB8" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>45383</v>
       </c>
       <c r="AC8" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>45390</v>
       </c>
       <c r="AD8" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>45397</v>
       </c>
       <c r="AE8" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>45404</v>
       </c>
       <c r="AF8" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>45411</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>45418</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>45425</v>
       </c>
     </row>
-    <row r="9" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="22">
-        <f>SUM(C10:C47)</f>
-        <v>61</v>
+        <f>SUM(C10:C46)</f>
+        <v>215</v>
       </c>
       <c r="D9" s="26">
-        <f>SUM(D10:D47)</f>
+        <f>SUM(D10:D46)</f>
         <v>3</v>
       </c>
       <c r="E9" s="26">
-        <f t="shared" ref="E9:Z9" si="12">SUM(E10:E47)</f>
+        <f>SUM(E10:E46)</f>
         <v>6</v>
       </c>
       <c r="F9" s="26">
-        <f t="shared" si="12"/>
+        <f>SUM(F10:F46)</f>
         <v>5</v>
       </c>
       <c r="G9" s="26">
-        <f t="shared" si="12"/>
+        <f>SUM(G10:G46)</f>
+        <v>6</v>
+      </c>
+      <c r="H9" s="26">
+        <f>SUM(H10:H46)</f>
+        <v>8</v>
+      </c>
+      <c r="I9" s="26">
+        <f>SUM(I10:I46)</f>
+        <v>6</v>
+      </c>
+      <c r="J9" s="26">
+        <f>SUM(J10:J46)</f>
         <v>10</v>
       </c>
-      <c r="H9" s="26">
-        <f t="shared" si="12"/>
+      <c r="K9" s="26">
+        <f>SUM(K10:K46)</f>
+        <v>5</v>
+      </c>
+      <c r="L9" s="26">
+        <f>SUM(L10:L46)</f>
         <v>8</v>
       </c>
-      <c r="I9" s="26">
-        <f t="shared" si="12"/>
+      <c r="M9" s="26">
+        <f>SUM(M10:M46)</f>
+        <v>8</v>
+      </c>
+      <c r="N9" s="26">
+        <f>SUM(N10:N46)</f>
+        <v>8</v>
+      </c>
+      <c r="O9" s="26">
+        <f>SUM(O10:O46)</f>
+        <v>8</v>
+      </c>
+      <c r="P9" s="26">
+        <f>SUM(P10:P46)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26">
+        <f>SUM(Q10:Q46)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="26">
+        <f>SUM(R10:R46)</f>
+        <v>10</v>
+      </c>
+      <c r="S9" s="26">
+        <f>SUM(S10:S46)</f>
+        <v>27</v>
+      </c>
+      <c r="T9" s="26">
+        <f>SUM(T10:T46)</f>
+        <v>23</v>
+      </c>
+      <c r="U9" s="26">
+        <f>SUM(U10:U46)</f>
+        <v>16</v>
+      </c>
+      <c r="V9" s="26">
+        <f>SUM(V10:V46)</f>
+        <v>17</v>
+      </c>
+      <c r="W9" s="26">
+        <f>SUM(W10:W46)</f>
+        <v>12</v>
+      </c>
+      <c r="X9" s="26">
+        <f>SUM(X10:X46)</f>
         <v>6</v>
       </c>
-      <c r="J9" s="26">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="K9" s="26">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="L9" s="26">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="M9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
       <c r="Y9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>SUM(Y10:Y46)</f>
+        <v>9</v>
       </c>
       <c r="Z9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>SUM(Z10:Z46)</f>
+        <v>7</v>
       </c>
       <c r="AA9" s="26">
-        <f t="shared" ref="AA9:AH9" si="13">SUM(AA10:AA47)</f>
-        <v>0</v>
+        <f>SUM(AA10:AA46)</f>
+        <v>7</v>
       </c>
       <c r="AB9" s="26">
-        <f t="shared" si="13"/>
+        <f>SUM(AB10:AB46)</f>
         <v>0</v>
       </c>
       <c r="AC9" s="26">
-        <f t="shared" si="13"/>
+        <f>SUM(AC10:AC46)</f>
         <v>0</v>
       </c>
       <c r="AD9" s="26">
-        <f t="shared" si="13"/>
+        <f>SUM(AD10:AD46)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="26">
-        <f t="shared" si="13"/>
+        <f>SUM(AE10:AE46)</f>
         <v>0</v>
       </c>
       <c r="AF9" s="26">
-        <f t="shared" si="13"/>
+        <f>SUM(AF10:AF46)</f>
         <v>0</v>
       </c>
       <c r="AG9" s="26">
-        <f t="shared" si="13"/>
+        <f>SUM(AG10:AG46)</f>
         <v>0</v>
       </c>
       <c r="AH9" s="26">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(AH10:AH46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
         <v>13</v>
       </c>
@@ -1394,13 +1418,13 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
     </row>
-    <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="25">
-        <f t="shared" ref="C11:C47" si="14">SUM(D11:AH11)</f>
-        <v>3</v>
+        <f t="shared" ref="C11:C46" si="10">SUM(D11:AH11)</f>
+        <v>9</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -1421,12 +1445,22 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
+      <c r="S11" s="12">
+        <v>2</v>
+      </c>
       <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
+      <c r="U11" s="12">
+        <v>1</v>
+      </c>
+      <c r="V11" s="12">
+        <v>1</v>
+      </c>
+      <c r="W11" s="12">
+        <v>1</v>
+      </c>
+      <c r="X11" s="12">
+        <v>1</v>
+      </c>
       <c r="Y11" s="12"/>
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
@@ -1438,13 +1472,13 @@
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
     </row>
-    <row r="12" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="25">
         <f>SUM(D12:AH12)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12" s="17">
         <v>2</v>
@@ -1469,7 +1503,9 @@
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="S12" s="12">
+        <v>4</v>
+      </c>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
@@ -1486,12 +1522,12 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
     </row>
-    <row r="13" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="D13" s="17"/>
@@ -1538,12 +1574,12 @@
       <c r="AG13" s="13"/>
       <c r="AH13" s="13"/>
     </row>
-    <row r="14" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D14" s="17"/>
@@ -1586,13 +1622,13 @@
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
     </row>
-    <row r="15" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="25">
-        <f t="shared" si="14"/>
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>37</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="12"/>
@@ -1613,14 +1649,26 @@
       <c r="L15" s="12">
         <v>2</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="M15" s="12">
+        <v>3</v>
+      </c>
+      <c r="N15" s="12">
+        <v>3</v>
+      </c>
+      <c r="O15" s="12">
+        <v>3</v>
+      </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
+      <c r="R15" s="12">
+        <v>2</v>
+      </c>
+      <c r="S15" s="12">
+        <v>5</v>
+      </c>
+      <c r="T15" s="12">
+        <v>5</v>
+      </c>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
@@ -1636,22 +1684,22 @@
       <c r="AG15" s="13"/>
       <c r="AH15" s="13"/>
     </row>
-    <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="12">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12">
         <v>4</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
@@ -1678,25 +1726,27 @@
       <c r="AG16" s="13"/>
       <c r="AH16" s="13"/>
     </row>
-    <row r="17" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" s="25">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="12">
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12">
+        <v>1</v>
+      </c>
+      <c r="L17" s="12">
         <v>4</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -1720,12 +1770,12 @@
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
     </row>
-    <row r="18" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D18" s="17"/>
@@ -1735,13 +1785,11 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="12">
-        <v>1</v>
-      </c>
-      <c r="L18" s="12">
-        <v>4</v>
-      </c>
-      <c r="M18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12">
+        <v>5</v>
+      </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
@@ -1764,11 +1812,13 @@
       <c r="AG18" s="13"/>
       <c r="AH18" s="13"/>
     </row>
-    <row r="19" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="7"/>
+    <row r="19" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="12"/>
@@ -1780,7 +1830,9 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="N19" s="12">
+        <v>5</v>
+      </c>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -1802,11 +1854,13 @@
       <c r="AG19" s="13"/>
       <c r="AH19" s="13"/>
     </row>
-    <row r="20" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="7"/>
+    <row r="20" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="C20" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="12"/>
@@ -1819,7 +1873,9 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
+      <c r="O20" s="12">
+        <v>5</v>
+      </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
@@ -1840,11 +1896,13 @@
       <c r="AG20" s="13"/>
       <c r="AH20" s="13"/>
     </row>
-    <row r="21" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="7"/>
+    <row r="21" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>18</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="12"/>
@@ -1867,9 +1925,15 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
+      <c r="Y21" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>7</v>
+      </c>
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
@@ -1878,10 +1942,10 @@
       <c r="AG21" s="13"/>
       <c r="AH21" s="13"/>
     </row>
-    <row r="22" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D22" s="17"/>
@@ -1916,11 +1980,13 @@
       <c r="AG22" s="13"/>
       <c r="AH22" s="13"/>
     </row>
-    <row r="23" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="7"/>
+    <row r="23" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C23" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>18</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="12"/>
@@ -1936,9 +2002,15 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
+      <c r="R23" s="12">
+        <v>8</v>
+      </c>
+      <c r="S23" s="12">
+        <v>8</v>
+      </c>
+      <c r="T23" s="12">
+        <v>2</v>
+      </c>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
@@ -1954,11 +2026,13 @@
       <c r="AG23" s="13"/>
       <c r="AH23" s="13"/>
     </row>
-    <row r="24" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="7"/>
+    <row r="24" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="C24" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>28</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="12"/>
@@ -1975,10 +2049,18 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
+      <c r="S24" s="12">
+        <v>5</v>
+      </c>
+      <c r="T24" s="12">
+        <v>8</v>
+      </c>
+      <c r="U24" s="12">
+        <v>10</v>
+      </c>
+      <c r="V24" s="12">
+        <v>5</v>
+      </c>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
@@ -1992,11 +2074,13 @@
       <c r="AG24" s="13"/>
       <c r="AH24" s="13"/>
     </row>
-    <row r="25" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="7"/>
+    <row r="25" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C25" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="12"/>
@@ -2014,8 +2098,12 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
+      <c r="T25" s="12">
+        <v>5</v>
+      </c>
+      <c r="U25" s="12">
+        <v>2</v>
+      </c>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
@@ -2030,11 +2118,13 @@
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
     </row>
-    <row r="26" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="7"/>
+    <row r="26" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C26" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>18</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="12"/>
@@ -2054,9 +2144,15 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
+      <c r="V26" s="12">
+        <v>8</v>
+      </c>
+      <c r="W26" s="12">
+        <v>8</v>
+      </c>
+      <c r="X26" s="12">
+        <v>2</v>
+      </c>
       <c r="Y26" s="12"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
@@ -2068,11 +2164,13 @@
       <c r="AG26" s="13"/>
       <c r="AH26" s="13"/>
     </row>
-    <row r="27" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="7"/>
+    <row r="27" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="C27" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>23</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="12"/>
@@ -2089,13 +2187,27 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
+      <c r="S27" s="12">
+        <v>3</v>
+      </c>
+      <c r="T27" s="12">
+        <v>3</v>
+      </c>
+      <c r="U27" s="12">
+        <v>3</v>
+      </c>
+      <c r="V27" s="12">
+        <v>3</v>
+      </c>
+      <c r="W27" s="12">
+        <v>3</v>
+      </c>
+      <c r="X27" s="12">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>5</v>
+      </c>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
@@ -2106,10 +2218,10 @@
       <c r="AG27" s="13"/>
       <c r="AH27" s="13"/>
     </row>
-    <row r="28" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D28" s="17"/>
@@ -2144,10 +2256,10 @@
       <c r="AG28" s="13"/>
       <c r="AH28" s="13"/>
     </row>
-    <row r="29" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D29" s="17"/>
@@ -2182,10 +2294,10 @@
       <c r="AG29" s="13"/>
       <c r="AH29" s="13"/>
     </row>
-    <row r="30" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D30" s="17"/>
@@ -2220,10 +2332,10 @@
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
     </row>
-    <row r="31" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D31" s="17"/>
@@ -2258,10 +2370,10 @@
       <c r="AG31" s="13"/>
       <c r="AH31" s="13"/>
     </row>
-    <row r="32" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D32" s="17"/>
@@ -2296,10 +2408,10 @@
       <c r="AG32" s="13"/>
       <c r="AH32" s="13"/>
     </row>
-    <row r="33" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D33" s="17"/>
@@ -2334,10 +2446,10 @@
       <c r="AG33" s="13"/>
       <c r="AH33" s="13"/>
     </row>
-    <row r="34" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
       <c r="C34" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D34" s="17"/>
@@ -2372,10 +2484,10 @@
       <c r="AG34" s="13"/>
       <c r="AH34" s="13"/>
     </row>
-    <row r="35" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="7"/>
+    <row r="35" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
       <c r="C35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D35" s="17"/>
@@ -2410,10 +2522,12 @@
       <c r="AG35" s="13"/>
       <c r="AH35" s="13"/>
     </row>
-    <row r="36" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="8"/>
+    <row r="36" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="C36" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D36" s="17"/>
@@ -2448,12 +2562,12 @@
       <c r="AG36" s="13"/>
       <c r="AH36" s="13"/>
     </row>
-    <row r="37" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D37" s="17"/>
@@ -2488,12 +2602,12 @@
       <c r="AG37" s="13"/>
       <c r="AH37" s="13"/>
     </row>
-    <row r="38" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D38" s="17"/>
@@ -2528,12 +2642,12 @@
       <c r="AG38" s="13"/>
       <c r="AH38" s="13"/>
     </row>
-    <row r="39" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D39" s="17"/>
@@ -2568,12 +2682,10 @@
       <c r="AG39" s="13"/>
       <c r="AH39" s="13"/>
     </row>
-    <row r="40" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="7" t="s">
-        <v>0</v>
-      </c>
+    <row r="40" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
       <c r="C40" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D40" s="17"/>
@@ -2608,10 +2720,10 @@
       <c r="AG40" s="13"/>
       <c r="AH40" s="13"/>
     </row>
-    <row r="41" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="7"/>
       <c r="C41" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D41" s="17"/>
@@ -2646,10 +2758,10 @@
       <c r="AG41" s="13"/>
       <c r="AH41" s="13"/>
     </row>
-    <row r="42" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
       <c r="C42" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D42" s="17"/>
@@ -2684,10 +2796,10 @@
       <c r="AG42" s="13"/>
       <c r="AH42" s="13"/>
     </row>
-    <row r="43" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
       <c r="C43" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D43" s="17"/>
@@ -2722,10 +2834,10 @@
       <c r="AG43" s="13"/>
       <c r="AH43" s="13"/>
     </row>
-    <row r="44" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D44" s="17"/>
@@ -2760,10 +2872,10 @@
       <c r="AG44" s="13"/>
       <c r="AH44" s="13"/>
     </row>
-    <row r="45" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D45" s="17"/>
@@ -2798,81 +2910,43 @@
       <c r="AG45" s="13"/>
       <c r="AH45" s="13"/>
     </row>
-    <row r="46" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="7"/>
+    <row r="46" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="8"/>
       <c r="C46" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13"/>
-    </row>
-    <row r="47" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="8"/>
-      <c r="C47" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="15"/>
-      <c r="AC47" s="15"/>
-      <c r="AD47" s="15"/>
-      <c r="AE47" s="15"/>
-      <c r="AF47" s="15"/>
-      <c r="AG47" s="15"/>
-      <c r="AH47" s="15"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2895,8 +2969,582 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C47">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="D21:P29 D11:P18 D19:H20 J19:P20">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:P30">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:P35">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:P40">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:P41">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:P46">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:AH9">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BCD65580-FCE2-4CC5-9CCE-B782BE912BFA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q30">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31:Q35">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36:Q40">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q42:Q46">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R30:Z30">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31:Z35">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R36:Z40">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R41:Z41">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R42:Z46">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA30">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA31:AA35">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA36:AA40">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA41">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA42:AA46">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB30">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB31:AB35">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB36:AB40">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB41">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB42:AB46">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC30">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC31:AC35">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC36:AC40">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC41">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC42:AC46">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD30">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD31:AD35">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD36:AD40">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD41">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD42:AD46">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31:AE35">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE36:AE40">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE41">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE42:AE46">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF30">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31:AF35">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF36:AF40">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF41">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF42:AF46">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG30">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG31:AG35">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36:AG40">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG41">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG42:AG46">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH30">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31:AH35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36:AH40">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH41">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH42:AH46">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C46">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2909,8 +3557,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C47">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="C11:C46">
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2923,92 +3571,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:P19 D22:P30 D20:H21 J20:P21">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:P31">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:P36">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:P41">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:P42">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:P47">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:Q10 Q11:Q30">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:AH9">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BCD65580-FCE2-4CC5-9CCE-B782BE912BFA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:AH47">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="D10:Q10 Q11:Q29">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:AH46">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3017,588 +3591,88 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q31">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q32:Q36">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q37:Q41">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q42">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q43:Q47">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10:Z30">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31:Z31">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R32:Z36">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R37:Z41">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R42:Z42">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R43:Z47">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA10:AA30">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA31">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA32:AA36">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA37:AA41">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA42">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA43:AA47">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB10:AB30">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB31">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB32:AB36">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB37:AB41">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB42">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB43:AB47">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC10:AC30">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC31">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC32:AC36">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC37:AC41">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC42">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC43:AC47">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD10:AD30">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD31">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD32:AD36">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD37:AD41">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD42">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD43:AD47">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE10:AE30">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE32:AE36">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE37:AE41">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE42">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE43:AE47">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF10:AF30">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF32:AF36">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF37:AF41">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF42">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF43:AF47">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG10:AG30">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG31">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG32:AG36">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG37:AG41">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG42">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG43:AG47">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH10:AH30">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH32:AH36">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH37:AH41">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH42">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH43:AH47">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="R10:Z29">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA10:AA29">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10:AB29">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10:AC29">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD10:AD29">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE10:AE29">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10:AF29">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10:AG29">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH10:AH29">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3626,6 +3700,17 @@
           <xm:sqref>C10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BCD65580-FCE2-4CC5-9CCE-B782BE912BFA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D9:AH9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A2C7A50C-F572-416B-9495-8A28D149BC35}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -3634,7 +3719,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C10:C47</xm:sqref>
+          <xm:sqref>C10:C46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{91046929-9F97-4C47-9B86-AC798F7EDAC7}">
@@ -3647,18 +3732,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C11:C47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BCD65580-FCE2-4CC5-9CCE-B782BE912BFA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D9:AH9</xm:sqref>
+          <xm:sqref>C11:C46</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
